--- a/latest_projections/DailyProjections_citywide20240327.xlsx
+++ b/latest_projections/DailyProjections_citywide20240327.xlsx
@@ -458,22 +458,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1622 (829, 2823)</t>
+          <t>1706 (867, 3004)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>104 (63, 165)</t>
+          <t>113 (69, 180)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13 (7, 23)</t>
+          <t>14 (7, 24)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>10 (5, 20)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -493,22 +493,22 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>25 (15, 41)</t>
+          <t>26 (15, 42)</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>20 (11, 35)</t>
+          <t>21 (11, 36)</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>4 (2, 7)</t>
+          <t>4 (3, 7)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>3 (2, 5)</t>
+          <t>4 (2, 6)</t>
         </is>
       </c>
     </row>
@@ -535,22 +535,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1557 (836, 2693)</t>
+          <t>1643 (873, 2884)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>100 (60, 161)</t>
+          <t>109 (66, 176)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12 (6, 21)</t>
+          <t>13 (7, 23)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>9 (4, 17)</t>
+          <t>10 (4, 19)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,17 +565,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1 (1, 3)</t>
+          <t>2 (1, 3)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>23 (14, 39)</t>
+          <t>24 (14, 40)</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>19 (10, 34)</t>
+          <t>19 (10, 35)</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -612,32 +612,32 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1496 (825, 2627)</t>
+          <t>1586 (863, 2823)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>98 (59, 158)</t>
+          <t>107 (64, 172)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>11 (6, 20)</t>
+          <t>12 (7, 22)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>8 (4, 17)</t>
+          <t>9 (4, 18)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>3 (2, 4)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>2 (1, 4)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -647,17 +647,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>22 (13, 37)</t>
+          <t>23 (13, 38)</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>18 (9, 32)</t>
+          <t>18 (9, 33)</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>4 (2, 6)</t>
+          <t>4 (2, 7)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -689,22 +689,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1446 (808, 2594)</t>
+          <t>1536 (843, 2789)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>96 (58, 155)</t>
+          <t>105 (63, 170)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>11 (6, 20)</t>
+          <t>12 (6, 22)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>8 (4, 16)</t>
+          <t>9 (4, 18)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21 (12, 35)</t>
+          <t>21 (12, 37)</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>16 (8, 30)</t>
+          <t>17 (8, 31)</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -766,22 +766,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1403 (784, 2574)</t>
+          <t>1496 (823, 2774)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>95 (57, 153)</t>
+          <t>103 (61, 168)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>10 (6, 19)</t>
+          <t>11 (6, 21)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>8 (4, 16)</t>
+          <t>9 (4, 18)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -801,17 +801,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>19 (11, 34)</t>
+          <t>20 (11, 35)</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>15 (7, 29)</t>
+          <t>16 (8, 30)</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>3 (2, 6)</t>
+          <t>4 (2, 6)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -843,22 +843,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1369 (761, 2565)</t>
+          <t>1464 (800, 2762)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>93 (55, 151)</t>
+          <t>101 (60, 166)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>10 (5, 19)</t>
+          <t>11 (6, 21)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>8 (4, 16)</t>
+          <t>9 (4, 17)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -878,12 +878,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>18 (10, 32)</t>
+          <t>19 (10, 33)</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>14 (7, 27)</t>
+          <t>15 (7, 28)</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>3 (2, 4)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
     </row>
@@ -920,34 +920,34 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1341 (742, 2555)</t>
+          <t>1435 (775, 2754)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>91 (54, 149)</t>
+          <t>99 (59, 164)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>10 (5, 19)</t>
+          <t>11 (6, 21)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>8 (4, 15)</t>
+          <t>9 (4, 17)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>2 (1, 4)</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>2 (1, 3)</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
-        </is>
-      </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>1 (1, 3)</t>
@@ -955,17 +955,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>17 (9, 30)</t>
+          <t>17 (9, 32)</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>13 (6, 26)</t>
+          <t>14 (6, 27)</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>3 (2, 5)</t>
+          <t>3 (2, 6)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -997,22 +997,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1321 (720, 2555)</t>
+          <t>1412 (755, 2756)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>89 (53, 147)</t>
+          <t>97 (57, 162)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10 (5, 18)</t>
+          <t>11 (6, 20)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>8 (4, 15)</t>
+          <t>9 (4, 17)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1022,22 +1022,22 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>2 (1, 3)</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>1 (1, 3)</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>1 (1, 2)</t>
-        </is>
-      </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>16 (8, 29)</t>
+          <t>16 (9, 30)</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>12 (6, 24)</t>
+          <t>13 (6, 25)</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1074,22 +1074,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1301 (702, 2555)</t>
+          <t>1395 (736, 2760)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>88 (52, 146)</t>
+          <t>95 (56, 161)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10 (5, 18)</t>
+          <t>11 (6, 20)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>8 (4, 15)</t>
+          <t>9 (4, 17)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1099,27 +1099,27 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>1 (1, 3)</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>1 (1, 2)</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>1 (1, 2)</t>
-        </is>
-      </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>15 (8, 27)</t>
+          <t>15 (8, 29)</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>11 (5, 23)</t>
+          <t>12 (6, 24)</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>3 (1, 5)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1151,22 +1151,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1284 (680, 2559)</t>
+          <t>1380 (715, 2766)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>86 (51, 144)</t>
+          <t>93 (55, 160)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>9 (5, 18)</t>
+          <t>10 (5, 20)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>8 (4, 15)</t>
+          <t>9 (4, 17)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1176,22 +1176,22 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>1 (1, 3)</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>1 (1, 2)</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>1 (1, 2)</t>
-        </is>
-      </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>14 (7, 26)</t>
+          <t>15 (8, 27)</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>11 (5, 22)</t>
+          <t>12 (5, 23)</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1228,22 +1228,22 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1268 (661, 2564)</t>
+          <t>1360 (696, 2771)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>84 (50, 143)</t>
+          <t>92 (53, 160)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>9 (5, 18)</t>
+          <t>10 (5, 20)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>8 (4, 15)</t>
+          <t>8 (4, 17)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1263,22 +1263,22 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>13 (7, 25)</t>
+          <t>14 (7, 26)</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>10 (5, 21)</t>
+          <t>11 (5, 22)</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
+          <t>2 (1, 5)</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
           <t>2 (1, 4)</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
         </is>
       </c>
     </row>
@@ -1305,27 +1305,27 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1258 (647, 2576)</t>
+          <t>1348 (680, 2782)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>83 (49, 143)</t>
+          <t>90 (52, 159)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>9 (5, 18)</t>
+          <t>10 (5, 20)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>7 (4, 15)</t>
+          <t>8 (4, 17)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1 (1, 3)</t>
+          <t>2 (1, 3)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1340,12 +1340,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>12 (6, 23)</t>
+          <t>13 (7, 25)</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>10 (4, 20)</t>
+          <t>11 (5, 21)</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1382,27 +1382,27 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1244 (629, 2583)</t>
+          <t>1339 (667, 2793)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>82 (48, 142)</t>
+          <t>89 (51, 159)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>9 (5, 18)</t>
+          <t>10 (5, 20)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>7 (3, 15)</t>
+          <t>8 (4, 17)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1 (1, 3)</t>
+          <t>2 (1, 3)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1417,12 +1417,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>12 (6, 22)</t>
+          <t>13 (7, 24)</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>9 (4, 19)</t>
+          <t>10 (5, 21)</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1459,22 +1459,22 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1232 (614, 2596)</t>
+          <t>1326 (651, 2808)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>80 (46, 142)</t>
+          <t>88 (50, 159)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>10 (5, 20)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>7 (3, 15)</t>
+          <t>8 (4, 17)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1494,12 +1494,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>11 (6, 22)</t>
+          <t>12 (6, 24)</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>10 (4, 20)</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1536,22 +1536,22 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1729 (887, 3019)</t>
+          <t>1852 (954, 3242)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>107 (63, 171)</t>
+          <t>118 (71, 189)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>13 (7, 24)</t>
+          <t>14 (8, 25)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>10 (5, 20)</t>
+          <t>11 (5, 21)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>25 (15, 43)</t>
+          <t>26 (15, 42)</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1613,22 +1613,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1679 (918, 2919)</t>
+          <t>1796 (982, 3140)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>103 (61, 167)</t>
+          <t>115 (69, 185)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>12 (7, 23)</t>
+          <t>13 (7, 24)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>9 (4, 19)</t>
+          <t>10 (5, 20)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>19 (10, 35)</t>
+          <t>20 (10, 35)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1690,27 +1690,27 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1635 (925, 2898)</t>
+          <t>1752 (986, 3120)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>101 (60, 164)</t>
+          <t>113 (68, 182)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>12 (6, 22)</t>
+          <t>13 (7, 23)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>10 (4, 19)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>3 (2, 4)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1725,12 +1725,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>22 (13, 39)</t>
+          <t>23 (13, 39)</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>18 (9, 34)</t>
+          <t>19 (9, 34)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1767,27 +1767,27 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1605 (921, 2907)</t>
+          <t>1719 (983, 3128)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>100 (60, 163)</t>
+          <t>112 (67, 181)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>12 (6, 21)</t>
+          <t>12 (7, 23)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>10 (5, 19)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>3 (1, 4)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1844,22 +1844,22 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1581 (912, 2928)</t>
+          <t>1697 (970, 3155)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>100 (60, 162)</t>
+          <t>111 (67, 181)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>11 (6, 21)</t>
+          <t>12 (7, 22)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>10 (5, 19)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1879,17 +1879,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>20 (11, 35)</t>
+          <t>20 (11, 36)</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>16 (7, 30)</t>
+          <t>16 (8, 30)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>3 (2, 6)</t>
+          <t>4 (2, 6)</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1921,22 +1921,22 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1565 (898, 2962)</t>
+          <t>1678 (955, 3184)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>99 (59, 162)</t>
+          <t>110 (66, 180)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>11 (6, 21)</t>
+          <t>12 (7, 22)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>9 (4, 17)</t>
+          <t>10 (5, 19)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>18 (10, 34)</t>
+          <t>19 (10, 34)</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>3 (2, 4)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
     </row>
@@ -1998,34 +1998,34 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1559 (887, 2994)</t>
+          <t>1670 (942, 3225)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>98 (59, 161)</t>
+          <t>109 (66, 181)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>11 (6, 21)</t>
+          <t>12 (6, 22)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>10 (5, 19)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
+          <t>2 (1, 4)</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
           <t>2 (1, 3)</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
-        </is>
-      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>1 (1, 3)</t>
@@ -2033,17 +2033,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>17 (9, 32)</t>
+          <t>18 (10, 32)</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>14 (6, 27)</t>
+          <t>14 (7, 28)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>3 (2, 5)</t>
+          <t>3 (2, 6)</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2075,22 +2075,22 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1554 (873, 3044)</t>
+          <t>1663 (927, 3258)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>98 (59, 162)</t>
+          <t>108 (65, 181)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>11 (6, 21)</t>
+          <t>12 (6, 22)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>10 (5, 19)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2100,22 +2100,22 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
+          <t>2 (1, 3)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
           <t>1 (1, 3)</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>1 (1, 3)</t>
-        </is>
-      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>16 (9, 30)</t>
+          <t>17 (9, 31)</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>13 (6, 26)</t>
+          <t>14 (6, 26)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2152,22 +2152,22 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1553 (861, 3086)</t>
+          <t>1664 (918, 3303)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>97 (58, 162)</t>
+          <t>107 (65, 182)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>11 (6, 21)</t>
+          <t>12 (6, 22)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>10 (5, 19)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2187,17 +2187,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>15 (8, 29)</t>
+          <t>16 (9, 29)</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>12 (6, 25)</t>
+          <t>13 (6, 25)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>3 (1, 5)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2229,22 +2229,22 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1554 (848, 3129)</t>
+          <t>1665 (905, 3350)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>96 (58, 163)</t>
+          <t>107 (64, 183)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>11 (6, 21)</t>
+          <t>12 (6, 23)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>9 (5, 18)</t>
+          <t>10 (5, 19)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>1 (1, 2)</t>
+          <t>1 (1, 3)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2264,12 +2264,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>14 (8, 28)</t>
+          <t>15 (8, 28)</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>12 (5, 23)</t>
+          <t>12 (6, 24)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2306,22 +2306,22 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1558 (838, 3177)</t>
+          <t>1667 (893, 3401)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>96 (58, 164)</t>
+          <t>106 (63, 185)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>11 (6, 21)</t>
+          <t>12 (6, 23)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>9 (5, 18)</t>
+          <t>10 (5, 20)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2331,32 +2331,32 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
+          <t>1 (1, 3)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
           <t>1 (1, 2)</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>1 (1, 2)</t>
-        </is>
-      </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>14 (7, 26)</t>
+          <t>15 (8, 27)</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>11 (5, 22)</t>
+          <t>12 (6, 23)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
+          <t>3 (1, 5)</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
           <t>2 (1, 4)</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
         </is>
       </c>
     </row>
@@ -2383,22 +2383,22 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1561 (825, 3227)</t>
+          <t>1670 (880, 3449)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>96 (57, 166)</t>
+          <t>105 (63, 186)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>11 (6, 21)</t>
+          <t>12 (6, 23)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>9 (5, 19)</t>
+          <t>10 (5, 20)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2408,17 +2408,17 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
+          <t>1 (1, 3)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
           <t>1 (1, 2)</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>1 (1, 2)</t>
-        </is>
-      </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>13 (7, 25)</t>
+          <t>14 (8, 26)</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2460,22 +2460,22 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1564 (819, 3278)</t>
+          <t>1678 (870, 3512)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>95 (57, 167)</t>
+          <t>105 (62, 189)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>11 (6, 22)</t>
+          <t>12 (6, 23)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>9 (5, 19)</t>
+          <t>10 (5, 20)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2485,22 +2485,22 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
+          <t>1 (1, 3)</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
           <t>1 (1, 2)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>1 (1, 2)</t>
-        </is>
-      </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>13 (7, 25)</t>
+          <t>14 (7, 26)</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>10 (5, 21)</t>
+          <t>11 (5, 22)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2537,22 +2537,22 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1570 (809, 3338)</t>
+          <t>1684 (862, 3567)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>95 (56, 169)</t>
+          <t>105 (62, 191)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>11 (6, 22)</t>
+          <t>12 (6, 23)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>9 (4, 19)</t>
+          <t>10 (5, 20)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2572,12 +2572,12 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>12 (7, 24)</t>
+          <t>13 (7, 25)</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>10 (5, 20)</t>
+          <t>11 (5, 21)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2689,42 +2689,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>137 (61, 289)</t>
+          <t>139 (63, 300)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>109 (39, 255)</t>
+          <t>111 (41, 264)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18 (7, 44)</t>
+          <t>19 (7, 44)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>18 (9, 34)</t>
+          <t>19 (10, 35)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>137 (61, 289)</t>
+          <t>139 (63, 300)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>109 (39, 255)</t>
+          <t>111 (41, 264)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>18 (7, 44)</t>
+          <t>19 (7, 44)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>18 (9, 34)</t>
+          <t>19 (10, 35)</t>
         </is>
       </c>
     </row>
@@ -2751,42 +2751,42 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>127 (56, 272)</t>
+          <t>129 (57, 283)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>100 (35, 239)</t>
+          <t>103 (36, 249)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>17 (7, 42)</t>
+          <t>18 (7, 42)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>17 (9, 32)</t>
+          <t>18 (9, 33)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>127 (56, 272)</t>
+          <t>129 (57, 283)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>100 (35, 239)</t>
+          <t>103 (36, 249)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>17 (7, 42)</t>
+          <t>18 (7, 42)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>17 (9, 32)</t>
+          <t>18 (9, 33)</t>
         </is>
       </c>
     </row>
@@ -2813,42 +2813,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>117 (51, 255)</t>
+          <t>120 (53, 267)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>92 (31, 224)</t>
+          <t>95 (33, 234)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>16 (6, 40)</t>
+          <t>17 (6, 40)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>16 (8, 31)</t>
+          <t>17 (9, 32)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>117 (51, 255)</t>
+          <t>120 (53, 267)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>92 (31, 224)</t>
+          <t>95 (33, 234)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>16 (6, 40)</t>
+          <t>17 (6, 40)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>16 (8, 31)</t>
+          <t>17 (9, 32)</t>
         </is>
       </c>
     </row>
@@ -2875,42 +2875,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>108 (46, 240)</t>
+          <t>112 (48, 252)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>85 (28, 210)</t>
+          <t>88 (30, 221)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>15 (6, 38)</t>
+          <t>16 (6, 38)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>15 (8, 29)</t>
+          <t>16 (8, 30)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>108 (46, 240)</t>
+          <t>112 (48, 252)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>85 (28, 210)</t>
+          <t>88 (30, 221)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>15 (6, 38)</t>
+          <t>16 (6, 38)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>15 (8, 29)</t>
+          <t>16 (8, 30)</t>
         </is>
       </c>
     </row>
@@ -2937,42 +2937,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>101 (43, 226)</t>
+          <t>105 (45, 239)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>79 (26, 198)</t>
+          <t>83 (28, 209)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>14 (5, 36)</t>
+          <t>15 (6, 36)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>14 (7, 27)</t>
+          <t>15 (8, 29)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>101 (43, 226)</t>
+          <t>105 (45, 239)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>79 (26, 198)</t>
+          <t>83 (28, 209)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>14 (5, 36)</t>
+          <t>15 (6, 36)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>14 (7, 27)</t>
+          <t>15 (8, 29)</t>
         </is>
       </c>
     </row>
@@ -2999,42 +2999,42 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>95 (40, 214)</t>
+          <t>99 (42, 227)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>74 (24, 187)</t>
+          <t>78 (26, 199)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>13 (5, 34)</t>
+          <t>14 (5, 34)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>13 (7, 26)</t>
+          <t>14 (7, 27)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>95 (40, 214)</t>
+          <t>99 (42, 227)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>74 (24, 187)</t>
+          <t>78 (26, 199)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>13 (5, 34)</t>
+          <t>14 (5, 34)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>13 (7, 26)</t>
+          <t>14 (7, 27)</t>
         </is>
       </c>
     </row>
@@ -3061,42 +3061,42 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89 (38, 203)</t>
+          <t>94 (40, 217)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>70 (23, 177)</t>
+          <t>74 (25, 190)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>12 (5, 32)</t>
+          <t>13 (5, 33)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>13 (6, 24)</t>
+          <t>13 (7, 26)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>89 (38, 203)</t>
+          <t>94 (40, 217)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>70 (23, 177)</t>
+          <t>74 (25, 190)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>12 (5, 32)</t>
+          <t>13 (5, 33)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>13 (6, 24)</t>
+          <t>13 (7, 26)</t>
         </is>
       </c>
     </row>
@@ -3123,42 +3123,42 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>85 (36, 193)</t>
+          <t>90 (38, 207)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>66 (22, 169)</t>
+          <t>71 (24, 182)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>12 (4, 30)</t>
+          <t>12 (4, 31)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>12 (6, 23)</t>
+          <t>12 (6, 24)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>85 (36, 193)</t>
+          <t>90 (38, 207)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>66 (22, 169)</t>
+          <t>71 (24, 182)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>12 (4, 30)</t>
+          <t>12 (4, 31)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>12 (6, 23)</t>
+          <t>12 (6, 24)</t>
         </is>
       </c>
     </row>
@@ -3185,42 +3185,42 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>81 (34, 185)</t>
+          <t>86 (37, 200)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>63 (21, 161)</t>
+          <t>68 (23, 175)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>11 (4, 28)</t>
+          <t>11 (4, 29)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>11 (5, 22)</t>
+          <t>12 (6, 23)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>81 (34, 185)</t>
+          <t>86 (37, 200)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>63 (21, 161)</t>
+          <t>68 (23, 175)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>11 (4, 28)</t>
+          <t>11 (4, 29)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>11 (5, 22)</t>
+          <t>12 (6, 23)</t>
         </is>
       </c>
     </row>
@@ -3247,42 +3247,42 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>78 (33, 178)</t>
+          <t>83 (36, 193)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>61 (20, 155)</t>
+          <t>66 (23, 170)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10 (4, 27)</t>
+          <t>11 (4, 28)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>10 (5, 21)</t>
+          <t>11 (5, 22)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>78 (33, 178)</t>
+          <t>83 (36, 193)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>61 (20, 155)</t>
+          <t>66 (23, 170)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>10 (4, 27)</t>
+          <t>11 (4, 28)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>10 (5, 21)</t>
+          <t>11 (5, 22)</t>
         </is>
       </c>
     </row>
@@ -3309,42 +3309,42 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>75 (32, 172)</t>
+          <t>81 (35, 188)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>59 (20, 150)</t>
+          <t>65 (23, 165)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10 (3, 25)</t>
+          <t>10 (4, 26)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10 (5, 19)</t>
+          <t>10 (5, 21)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>75 (32, 172)</t>
+          <t>81 (35, 188)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>59 (20, 150)</t>
+          <t>65 (23, 165)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>10 (3, 25)</t>
+          <t>10 (4, 26)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>10 (5, 19)</t>
+          <t>10 (5, 21)</t>
         </is>
       </c>
     </row>
@@ -3371,42 +3371,42 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>73 (31, 167)</t>
+          <t>79 (34, 183)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>58 (20, 146)</t>
+          <t>63 (22, 161)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>9 (3, 24)</t>
+          <t>10 (4, 25)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>10 (5, 20)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>73 (31, 167)</t>
+          <t>79 (34, 183)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>58 (20, 146)</t>
+          <t>63 (22, 161)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>9 (3, 24)</t>
+          <t>10 (4, 25)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>10 (5, 20)</t>
         </is>
       </c>
     </row>
@@ -3433,42 +3433,42 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>71 (30, 163)</t>
+          <t>77 (33, 180)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>57 (20, 143)</t>
+          <t>62 (22, 158)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>9 (3, 23)</t>
+          <t>9 (3, 24)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>9 (4, 19)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>71 (30, 163)</t>
+          <t>77 (33, 180)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>57 (20, 143)</t>
+          <t>62 (22, 158)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>9 (3, 23)</t>
+          <t>9 (3, 24)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>9 (4, 19)</t>
         </is>
       </c>
     </row>
@@ -3495,42 +3495,42 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>69 (29, 160)</t>
+          <t>75 (32, 177)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>56 (19, 140)</t>
+          <t>61 (22, 156)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>8 (3, 22)</t>
+          <t>9 (3, 23)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>8 (4, 17)</t>
+          <t>9 (4, 18)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>69 (29, 160)</t>
+          <t>75 (32, 177)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>56 (19, 140)</t>
+          <t>61 (22, 156)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>8 (3, 22)</t>
+          <t>9 (3, 23)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>8 (4, 17)</t>
+          <t>9 (4, 18)</t>
         </is>
       </c>
     </row>
@@ -3557,12 +3557,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>142 (62, 306)</t>
+          <t>143 (64, 305)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>114 (40, 271)</t>
+          <t>116 (42, 271)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -3572,17 +3572,17 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>18 (10, 34)</t>
+          <t>18 (9, 34)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>142 (62, 306)</t>
+          <t>143 (64, 305)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>114 (40, 271)</t>
+          <t>116 (42, 271)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>18 (10, 34)</t>
+          <t>18 (9, 34)</t>
         </is>
       </c>
     </row>
@@ -3619,17 +3619,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>131 (57, 288)</t>
+          <t>134 (59, 289)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>105 (37, 254)</t>
+          <t>108 (38, 256)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>17 (7, 42)</t>
+          <t>18 (7, 42)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3639,17 +3639,17 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>131 (57, 288)</t>
+          <t>134 (59, 289)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>105 (37, 254)</t>
+          <t>108 (38, 256)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>17 (7, 42)</t>
+          <t>18 (7, 42)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -3681,42 +3681,42 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>122 (53, 271)</t>
+          <t>125 (55, 273)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>97 (33, 239)</t>
+          <t>100 (35, 242)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>16 (6, 40)</t>
+          <t>17 (6, 40)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>16 (8, 31)</t>
+          <t>17 (9, 31)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>122 (53, 271)</t>
+          <t>125 (55, 273)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>97 (33, 239)</t>
+          <t>100 (35, 242)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>16 (6, 40)</t>
+          <t>17 (6, 40)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>16 (8, 31)</t>
+          <t>17 (9, 31)</t>
         </is>
       </c>
     </row>
@@ -3743,42 +3743,42 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>114 (49, 256)</t>
+          <t>117 (51, 259)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>90 (31, 225)</t>
+          <t>94 (32, 229)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>15 (6, 38)</t>
+          <t>16 (6, 38)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>15 (8, 30)</t>
+          <t>16 (8, 30)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>114 (49, 256)</t>
+          <t>117 (51, 259)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>90 (31, 225)</t>
+          <t>94 (32, 229)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>15 (6, 38)</t>
+          <t>16 (6, 38)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>15 (8, 30)</t>
+          <t>16 (8, 30)</t>
         </is>
       </c>
     </row>
@@ -3805,42 +3805,42 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>107 (45, 243)</t>
+          <t>111 (48, 247)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>85 (29, 213)</t>
+          <t>88 (30, 218)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>15 (5, 36)</t>
+          <t>15 (6, 37)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>14 (7, 28)</t>
+          <t>15 (8, 28)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>107 (45, 243)</t>
+          <t>111 (48, 247)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>85 (29, 213)</t>
+          <t>88 (30, 218)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>15 (5, 36)</t>
+          <t>15 (6, 37)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>14 (7, 28)</t>
+          <t>15 (8, 28)</t>
         </is>
       </c>
     </row>
@@ -3867,17 +3867,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>101 (43, 231)</t>
+          <t>105 (46, 236)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>80 (27, 202)</t>
+          <t>84 (29, 208)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>14 (5, 34)</t>
+          <t>14 (5, 35)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -3887,17 +3887,17 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>101 (43, 231)</t>
+          <t>105 (46, 236)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>80 (27, 202)</t>
+          <t>84 (29, 208)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>14 (5, 34)</t>
+          <t>14 (5, 35)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -3929,42 +3929,42 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>96 (41, 220)</t>
+          <t>101 (44, 226)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>76 (26, 193)</t>
+          <t>80 (28, 200)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>13 (5, 32)</t>
+          <t>13 (5, 33)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>13 (6, 25)</t>
+          <t>13 (7, 26)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>96 (41, 220)</t>
+          <t>101 (44, 226)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>76 (26, 193)</t>
+          <t>80 (28, 200)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>13 (5, 32)</t>
+          <t>13 (5, 33)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>13 (6, 25)</t>
+          <t>13 (7, 26)</t>
         </is>
       </c>
     </row>
@@ -3991,17 +3991,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>92 (40, 212)</t>
+          <t>97 (42, 218)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>74 (26, 186)</t>
+          <t>78 (27, 193)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>12 (4, 31)</t>
+          <t>12 (5, 32)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -4011,17 +4011,17 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>92 (40, 212)</t>
+          <t>97 (42, 218)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>74 (26, 186)</t>
+          <t>78 (27, 193)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>12 (4, 31)</t>
+          <t>12 (5, 32)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -4053,42 +4053,42 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>89 (39, 204)</t>
+          <t>94 (41, 212)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>72 (25, 180)</t>
+          <t>76 (27, 187)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>11 (4, 29)</t>
+          <t>12 (4, 30)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>11 (6, 23)</t>
+          <t>12 (6, 23)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>89 (39, 204)</t>
+          <t>94 (41, 212)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>72 (25, 180)</t>
+          <t>76 (27, 187)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>11 (4, 29)</t>
+          <t>12 (4, 30)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>11 (6, 23)</t>
+          <t>12 (6, 23)</t>
         </is>
       </c>
     </row>
@@ -4115,42 +4115,42 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>87 (38, 199)</t>
+          <t>92 (40, 207)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>70 (25, 175)</t>
+          <t>74 (27, 183)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>11 (4, 28)</t>
+          <t>11 (4, 29)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>11 (5, 21)</t>
+          <t>11 (5, 22)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>87 (38, 199)</t>
+          <t>92 (40, 207)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>70 (25, 175)</t>
+          <t>74 (27, 183)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>11 (4, 28)</t>
+          <t>11 (4, 29)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>11 (5, 21)</t>
+          <t>11 (5, 22)</t>
         </is>
       </c>
     </row>
@@ -4177,42 +4177,42 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>85 (37, 195)</t>
+          <t>90 (40, 203)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>69 (25, 172)</t>
+          <t>73 (27, 180)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10 (4, 26)</t>
+          <t>11 (4, 27)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>10 (5, 20)</t>
+          <t>10 (5, 21)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>85 (37, 195)</t>
+          <t>90 (40, 203)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>69 (25, 172)</t>
+          <t>73 (27, 180)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>10 (4, 26)</t>
+          <t>11 (4, 27)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>10 (5, 20)</t>
+          <t>10 (5, 21)</t>
         </is>
       </c>
     </row>
@@ -4239,42 +4239,42 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>84 (37, 192)</t>
+          <t>88 (39, 200)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>69 (25, 169)</t>
+          <t>72 (27, 178)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>10 (3, 25)</t>
+          <t>10 (4, 26)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>9 (5, 20)</t>
+          <t>10 (5, 20)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>84 (37, 192)</t>
+          <t>88 (39, 200)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>69 (25, 169)</t>
+          <t>72 (27, 178)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>10 (3, 25)</t>
+          <t>10 (4, 26)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>9 (5, 20)</t>
+          <t>10 (5, 20)</t>
         </is>
       </c>
     </row>
@@ -4301,42 +4301,42 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>83 (36, 189)</t>
+          <t>87 (38, 198)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>68 (25, 168)</t>
+          <t>72 (27, 176)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>9 (3, 24)</t>
+          <t>10 (4, 25)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>9 (4, 19)</t>
+          <t>10 (5, 20)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>83 (36, 189)</t>
+          <t>87 (38, 198)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>68 (25, 168)</t>
+          <t>72 (27, 176)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>9 (3, 24)</t>
+          <t>10 (4, 25)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>9 (4, 19)</t>
+          <t>10 (5, 20)</t>
         </is>
       </c>
     </row>
@@ -4363,42 +4363,42 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>82 (36, 188)</t>
+          <t>86 (38, 197)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>68 (25, 167)</t>
+          <t>71 (27, 175)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>9 (3, 23)</t>
+          <t>9 (3, 25)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>9 (4, 19)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>82 (36, 188)</t>
+          <t>86 (38, 197)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>68 (25, 167)</t>
+          <t>71 (27, 175)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>9 (3, 23)</t>
+          <t>9 (3, 25)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>9 (4, 19)</t>
         </is>
       </c>
     </row>

--- a/latest_projections/DailyProjections_citywide20240327.xlsx
+++ b/latest_projections/DailyProjections_citywide20240327.xlsx
@@ -458,22 +458,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1706 (867, 3004)</t>
+          <t>2271 (1318, 3864)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>113 (69, 180)</t>
+          <t>157 (103, 244)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14 (7, 24)</t>
+          <t>18 (10, 30)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>10 (5, 20)</t>
+          <t>14 (7, 26)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>3 (1, 4)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -493,12 +493,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>26 (15, 42)</t>
+          <t>26 (16, 42)</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21 (11, 36)</t>
+          <t>21 (11, 37)</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>4 (2, 6)</t>
+          <t>3 (2, 6)</t>
         </is>
       </c>
     </row>
@@ -535,22 +535,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1643 (873, 2884)</t>
+          <t>2219 (1290, 3804)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>109 (66, 176)</t>
+          <t>153 (100, 241)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>13 (7, 23)</t>
+          <t>17 (10, 30)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>10 (4, 19)</t>
+          <t>14 (7, 25)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -570,12 +570,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>24 (14, 40)</t>
+          <t>25 (15, 41)</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>19 (10, 35)</t>
+          <t>20 (11, 35)</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -612,22 +612,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1586 (863, 2823)</t>
+          <t>2174 (1251, 3776)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>107 (64, 172)</t>
+          <t>149 (96, 238)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>12 (7, 22)</t>
+          <t>16 (9, 29)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>13 (7, 25)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -642,17 +642,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1 (1, 3)</t>
+          <t>2 (1, 3)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>23 (13, 38)</t>
+          <t>24 (14, 40)</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>18 (9, 33)</t>
+          <t>20 (10, 34)</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -689,34 +689,34 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1536 (843, 2789)</t>
+          <t>2130 (1215, 3755)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>105 (63, 170)</t>
+          <t>146 (93, 235)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>12 (6, 22)</t>
+          <t>16 (9, 29)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>13 (6, 24)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>3 (2, 5)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>2 (1, 4)</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
-        </is>
-      </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>1 (1, 3)</t>
@@ -724,12 +724,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21 (12, 37)</t>
+          <t>23 (13, 38)</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>17 (8, 31)</t>
+          <t>19 (10, 33)</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -766,34 +766,34 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1496 (823, 2774)</t>
+          <t>2093 (1185, 3744)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>103 (61, 168)</t>
+          <t>143 (90, 233)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>11 (6, 21)</t>
+          <t>16 (9, 28)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>13 (6, 24)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>3 (2, 5)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>2 (1, 4)</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
-        </is>
-      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>1 (1, 3)</t>
@@ -801,12 +801,12 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>20 (11, 35)</t>
+          <t>22 (13, 37)</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>16 (8, 30)</t>
+          <t>18 (9, 32)</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -843,34 +843,34 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1464 (800, 2762)</t>
+          <t>2063 (1151, 3740)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>101 (60, 166)</t>
+          <t>141 (87, 232)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>11 (6, 21)</t>
+          <t>15 (8, 28)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>9 (4, 17)</t>
+          <t>12 (6, 24)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>3 (1, 5)</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>2 (1, 4)</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
-        </is>
-      </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>1 (1, 3)</t>
@@ -878,17 +878,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>19 (10, 33)</t>
+          <t>21 (12, 36)</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>15 (7, 28)</t>
+          <t>17 (9, 31)</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>3 (2, 6)</t>
+          <t>4 (2, 6)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -920,34 +920,34 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1435 (775, 2754)</t>
+          <t>2035 (1120, 3738)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>99 (59, 164)</t>
+          <t>138 (85, 231)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>11 (6, 21)</t>
+          <t>15 (8, 28)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>9 (4, 17)</t>
+          <t>12 (6, 24)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>3 (1, 4)</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>2 (1, 4)</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
-        </is>
-      </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>1 (1, 3)</t>
@@ -955,12 +955,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>17 (9, 32)</t>
+          <t>20 (12, 35)</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>14 (6, 27)</t>
+          <t>17 (8, 30)</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>3 (1, 4)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
     </row>
@@ -997,34 +997,34 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1412 (755, 2756)</t>
+          <t>2011 (1093, 3747)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>97 (57, 162)</t>
+          <t>136 (82, 230)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>11 (6, 20)</t>
+          <t>15 (8, 28)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>9 (4, 17)</t>
+          <t>12 (6, 24)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>2 (1, 4)</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>2 (1, 3)</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
-        </is>
-      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>1 (1, 3)</t>
@@ -1032,22 +1032,22 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>16 (9, 30)</t>
+          <t>20 (11, 34)</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>13 (6, 25)</t>
+          <t>16 (8, 29)</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>3 (2, 5)</t>
+          <t>3 (2, 6)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>3 (1, 4)</t>
         </is>
       </c>
     </row>
@@ -1074,47 +1074,47 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1395 (736, 2760)</t>
+          <t>1991 (1066, 3762)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>95 (56, 161)</t>
+          <t>134 (80, 229)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>11 (6, 20)</t>
+          <t>14 (8, 28)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>9 (4, 17)</t>
+          <t>12 (6, 24)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>2 (1, 4)</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>2 (1, 3)</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>1 (1, 3)</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>1 (1, 2)</t>
-        </is>
-      </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>15 (8, 29)</t>
+          <t>19 (11, 33)</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>12 (6, 24)</t>
+          <t>15 (8, 28)</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1151,52 +1151,52 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1380 (715, 2766)</t>
+          <t>1970 (1041, 3773)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>93 (55, 160)</t>
+          <t>132 (78, 229)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10 (5, 20)</t>
+          <t>14 (7, 28)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>9 (4, 17)</t>
+          <t>12 (6, 24)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>2 (1, 4)</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>2 (1, 3)</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>1 (1, 3)</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>1 (1, 2)</t>
-        </is>
-      </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>15 (8, 27)</t>
+          <t>18 (10, 32)</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>12 (5, 23)</t>
+          <t>15 (7, 28)</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>3 (1, 5)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1228,52 +1228,52 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1360 (696, 2771)</t>
+          <t>1953 (1018, 3795)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>92 (53, 160)</t>
+          <t>130 (76, 230)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10 (5, 20)</t>
+          <t>14 (7, 28)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>8 (4, 17)</t>
+          <t>12 (6, 24)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>2 (1, 4)</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>2 (1, 3)</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>1 (1, 2)</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>1 (1, 2)</t>
-        </is>
-      </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>14 (7, 26)</t>
+          <t>18 (10, 32)</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>11 (5, 22)</t>
+          <t>14 (7, 27)</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2 (1, 5)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1305,57 +1305,57 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1348 (680, 2782)</t>
+          <t>1937 (998, 3813)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>90 (52, 159)</t>
+          <t>129 (75, 230)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10 (5, 20)</t>
+          <t>14 (7, 28)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>8 (4, 17)</t>
+          <t>11 (5, 24)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>2 (1, 4)</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>2 (1, 3)</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>1 (1, 2)</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>1 (1, 2)</t>
-        </is>
-      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>13 (7, 25)</t>
+          <t>17 (9, 31)</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>11 (5, 21)</t>
+          <t>14 (7, 27)</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
+          <t>3 (1, 5)</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
           <t>2 (1, 4)</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
         </is>
       </c>
     </row>
@@ -1382,57 +1382,57 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1339 (667, 2793)</t>
+          <t>1922 (977, 3837)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>89 (51, 159)</t>
+          <t>128 (73, 231)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10 (5, 20)</t>
+          <t>14 (7, 28)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>8 (4, 17)</t>
+          <t>11 (5, 24)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>2 (1, 4)</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>2 (1, 3)</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>1 (1, 2)</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>1 (1, 2)</t>
-        </is>
-      </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>13 (7, 24)</t>
+          <t>17 (9, 30)</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>10 (5, 21)</t>
+          <t>13 (7, 26)</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
+          <t>3 (1, 5)</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
           <t>2 (1, 4)</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
         </is>
       </c>
     </row>
@@ -1459,57 +1459,57 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1326 (651, 2808)</t>
+          <t>1910 (955, 3863)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>88 (50, 159)</t>
+          <t>127 (71, 232)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10 (5, 20)</t>
+          <t>14 (7, 28)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>8 (4, 17)</t>
+          <t>11 (5, 24)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1 (1, 3)</t>
+          <t>2 (1, 4)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>2 (1, 3)</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
           <t>1 (1, 2)</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>1 (1, 2)</t>
-        </is>
-      </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>12 (6, 24)</t>
+          <t>16 (9, 30)</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>10 (4, 20)</t>
+          <t>13 (6, 26)</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
+          <t>3 (1, 5)</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
           <t>2 (1, 4)</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
         </is>
       </c>
     </row>
@@ -1536,32 +1536,32 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1852 (954, 3242)</t>
+          <t>2521 (1432, 4336)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>118 (71, 189)</t>
+          <t>165 (105, 260)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>14 (8, 25)</t>
+          <t>18 (10, 32)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>11 (5, 21)</t>
+          <t>15 (7, 27)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>3 (2, 5)</t>
+          <t>3 (2, 6)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>3 (2, 4)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1571,12 +1571,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>26 (15, 42)</t>
+          <t>27 (16, 44)</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>21 (11, 37)</t>
+          <t>22 (12, 38)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1613,22 +1613,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1796 (982, 3140)</t>
+          <t>2496 (1425, 4312)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>115 (69, 185)</t>
+          <t>162 (103, 258)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>13 (7, 24)</t>
+          <t>18 (10, 31)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>10 (5, 20)</t>
+          <t>14 (7, 27)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>3 (1, 4)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>24 (14, 41)</t>
+          <t>26 (15, 42)</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>20 (10, 35)</t>
+          <t>21 (11, 37)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1690,22 +1690,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1752 (986, 3120)</t>
+          <t>2470 (1408, 4326)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>113 (68, 182)</t>
+          <t>160 (100, 257)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>13 (7, 23)</t>
+          <t>17 (9, 31)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>10 (4, 19)</t>
+          <t>14 (7, 26)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1725,12 +1725,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>23 (13, 39)</t>
+          <t>25 (14, 41)</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>19 (9, 34)</t>
+          <t>20 (11, 36)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1767,47 +1767,47 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1719 (983, 3128)</t>
+          <t>2456 (1394, 4352)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>112 (67, 181)</t>
+          <t>158 (99, 256)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>12 (7, 23)</t>
+          <t>17 (9, 31)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>10 (5, 19)</t>
+          <t>14 (7, 26)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>3 (1, 4)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
+          <t>2 (1, 4)</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
           <t>2 (1, 3)</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
-        </is>
-      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>21 (12, 37)</t>
+          <t>24 (14, 40)</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>17 (8, 32)</t>
+          <t>19 (10, 35)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1844,47 +1844,47 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1697 (970, 3155)</t>
+          <t>2443 (1372, 4389)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>111 (67, 181)</t>
+          <t>156 (97, 257)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>12 (7, 22)</t>
+          <t>17 (9, 31)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>10 (5, 19)</t>
+          <t>14 (7, 26)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
+          <t>3 (2, 5)</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
           <t>2 (1, 4)</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>2 (1, 3)</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>1 (1, 3)</t>
-        </is>
-      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>20 (11, 36)</t>
+          <t>23 (13, 39)</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>16 (8, 30)</t>
+          <t>19 (10, 34)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1921,52 +1921,52 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1678 (955, 3184)</t>
+          <t>2431 (1354, 4434)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>110 (66, 180)</t>
+          <t>155 (95, 257)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>12 (7, 22)</t>
+          <t>17 (9, 30)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>10 (5, 19)</t>
+          <t>14 (7, 26)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
+          <t>3 (1, 5)</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
           <t>2 (1, 4)</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>2 (1, 3)</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>1 (1, 3)</t>
-        </is>
-      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>19 (10, 34)</t>
+          <t>22 (13, 38)</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>15 (7, 29)</t>
+          <t>18 (9, 33)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>3 (2, 6)</t>
+          <t>4 (2, 6)</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1998,34 +1998,34 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1670 (942, 3225)</t>
+          <t>2426 (1338, 4483)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>109 (66, 181)</t>
+          <t>154 (94, 259)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>12 (6, 22)</t>
+          <t>16 (9, 31)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>10 (5, 19)</t>
+          <t>13 (7, 26)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
+          <t>3 (1, 5)</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
           <t>2 (1, 4)</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
-        </is>
-      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>1 (1, 3)</t>
@@ -2033,12 +2033,12 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>18 (10, 32)</t>
+          <t>21 (12, 37)</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>14 (7, 28)</t>
+          <t>17 (9, 32)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>3 (1, 4)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
     </row>
@@ -2075,32 +2075,32 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1663 (927, 3258)</t>
+          <t>2425 (1321, 4544)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>108 (65, 181)</t>
+          <t>153 (92, 261)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>12 (6, 22)</t>
+          <t>16 (9, 31)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>10 (5, 19)</t>
+          <t>13 (7, 26)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>3 (1, 5)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>2 (1, 4)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2110,22 +2110,22 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>17 (9, 31)</t>
+          <t>21 (11, 36)</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>14 (6, 26)</t>
+          <t>17 (8, 31)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>3 (2, 5)</t>
+          <t>3 (2, 6)</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>3 (1, 5)</t>
         </is>
       </c>
     </row>
@@ -2152,57 +2152,57 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1664 (918, 3303)</t>
+          <t>2426 (1307, 4612)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>107 (65, 182)</t>
+          <t>153 (91, 263)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>12 (6, 22)</t>
+          <t>16 (9, 31)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>10 (5, 19)</t>
+          <t>13 (7, 27)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>2 (1, 4)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
+          <t>2 (1, 4)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
           <t>1 (1, 3)</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>1 (1, 3)</t>
-        </is>
-      </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>16 (9, 29)</t>
+          <t>20 (11, 35)</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>13 (6, 25)</t>
+          <t>16 (8, 30)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>3 (2, 5)</t>
+          <t>3 (2, 6)</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2 (1, 4)</t>
+          <t>3 (1, 4)</t>
         </is>
       </c>
     </row>
@@ -2229,52 +2229,52 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1665 (905, 3350)</t>
+          <t>2430 (1292, 4674)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>107 (64, 183)</t>
+          <t>152 (90, 266)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>12 (6, 23)</t>
+          <t>16 (8, 31)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>10 (5, 19)</t>
+          <t>13 (7, 27)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2 (1, 3)</t>
+          <t>2 (1, 4)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
+          <t>2 (1, 4)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
           <t>1 (1, 3)</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>1 (1, 3)</t>
-        </is>
-      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>15 (8, 28)</t>
+          <t>19 (11, 34)</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>12 (6, 24)</t>
+          <t>16 (8, 30)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>3 (1, 5)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2306,52 +2306,52 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1667 (893, 3401)</t>
+          <t>2430 (1278, 4750)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>106 (63, 185)</t>
+          <t>152 (89, 269)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>12 (6, 23)</t>
+          <t>16 (8, 31)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>10 (5, 20)</t>
+          <t>13 (6, 27)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
+          <t>2 (1, 4)</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
           <t>2 (1, 3)</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>1 (1, 3)</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>1 (1, 2)</t>
-        </is>
-      </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>15 (8, 27)</t>
+          <t>19 (10, 34)</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>12 (6, 23)</t>
+          <t>15 (7, 29)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>3 (1, 5)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2383,57 +2383,57 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1670 (880, 3449)</t>
+          <t>2439 (1266, 4824)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>105 (63, 186)</t>
+          <t>152 (88, 272)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>12 (6, 23)</t>
+          <t>16 (8, 32)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>10 (5, 20)</t>
+          <t>13 (6, 27)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
+          <t>2 (1, 4)</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
           <t>2 (1, 3)</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>1 (1, 3)</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>1 (1, 2)</t>
-        </is>
-      </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>14 (8, 26)</t>
+          <t>18 (10, 33)</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>11 (5, 22)</t>
+          <t>15 (7, 29)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
+          <t>3 (2, 5)</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
           <t>2 (1, 4)</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
         </is>
       </c>
     </row>
@@ -2460,57 +2460,57 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1678 (870, 3512)</t>
+          <t>2445 (1257, 4900)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>105 (62, 189)</t>
+          <t>152 (87, 276)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>12 (6, 23)</t>
+          <t>16 (8, 32)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>10 (5, 20)</t>
+          <t>13 (6, 28)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
+          <t>2 (1, 4)</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
           <t>2 (1, 3)</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>1 (1, 3)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>1 (1, 2)</t>
-        </is>
-      </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>14 (7, 26)</t>
+          <t>18 (10, 33)</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>11 (5, 22)</t>
+          <t>15 (7, 28)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
+          <t>3 (1, 5)</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
           <t>2 (1, 4)</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
         </is>
       </c>
     </row>
@@ -2537,57 +2537,57 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1684 (862, 3567)</t>
+          <t>2452 (1245, 4988)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>105 (62, 191)</t>
+          <t>152 (86, 280)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>12 (6, 23)</t>
+          <t>16 (8, 32)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>10 (5, 20)</t>
+          <t>13 (6, 28)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
+          <t>2 (1, 4)</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
           <t>2 (1, 3)</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>1 (1, 2)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>1 (1, 2)</t>
-        </is>
-      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>13 (7, 25)</t>
+          <t>18 (9, 32)</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>11 (5, 21)</t>
+          <t>14 (7, 28)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
+          <t>3 (1, 5)</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
           <t>2 (1, 4)</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>2 (1, 3)</t>
         </is>
       </c>
     </row>
@@ -2689,17 +2689,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>139 (63, 300)</t>
+          <t>153 (71, 319)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>111 (41, 264)</t>
+          <t>124 (47, 283)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19 (7, 44)</t>
+          <t>19 (8, 44)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2709,17 +2709,17 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>139 (63, 300)</t>
+          <t>153 (71, 319)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>111 (41, 264)</t>
+          <t>124 (47, 283)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>19 (7, 44)</t>
+          <t>19 (8, 44)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -2751,17 +2751,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>129 (57, 283)</t>
+          <t>146 (67, 307)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>103 (36, 249)</t>
+          <t>118 (44, 273)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18 (7, 42)</t>
+          <t>18 (7, 43)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2771,17 +2771,17 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>129 (57, 283)</t>
+          <t>146 (67, 307)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>103 (36, 249)</t>
+          <t>118 (44, 273)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>18 (7, 42)</t>
+          <t>18 (7, 43)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -2813,17 +2813,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>120 (53, 267)</t>
+          <t>140 (64, 297)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>95 (33, 234)</t>
+          <t>113 (42, 263)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>17 (6, 40)</t>
+          <t>18 (7, 42)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2833,17 +2833,17 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>120 (53, 267)</t>
+          <t>140 (64, 297)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>95 (33, 234)</t>
+          <t>113 (42, 263)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>17 (6, 40)</t>
+          <t>18 (7, 42)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -2875,42 +2875,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>112 (48, 252)</t>
+          <t>135 (61, 288)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>88 (30, 221)</t>
+          <t>109 (40, 255)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>16 (6, 38)</t>
+          <t>17 (7, 40)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>16 (8, 30)</t>
+          <t>16 (8, 31)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>112 (48, 252)</t>
+          <t>135 (61, 288)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>88 (30, 221)</t>
+          <t>109 (40, 255)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>16 (6, 38)</t>
+          <t>17 (7, 40)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>16 (8, 30)</t>
+          <t>16 (8, 31)</t>
         </is>
       </c>
     </row>
@@ -2937,42 +2937,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>105 (45, 239)</t>
+          <t>130 (58, 279)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>83 (28, 209)</t>
+          <t>105 (38, 248)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>15 (6, 36)</t>
+          <t>16 (6, 39)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>15 (8, 29)</t>
+          <t>16 (8, 30)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>105 (45, 239)</t>
+          <t>130 (58, 279)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>83 (28, 209)</t>
+          <t>105 (38, 248)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>15 (6, 36)</t>
+          <t>16 (6, 39)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>15 (8, 29)</t>
+          <t>16 (8, 30)</t>
         </is>
       </c>
     </row>
@@ -2999,42 +2999,42 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>99 (42, 227)</t>
+          <t>125 (56, 272)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>78 (26, 199)</t>
+          <t>101 (37, 241)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>14 (5, 34)</t>
+          <t>16 (6, 37)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>14 (7, 27)</t>
+          <t>15 (8, 29)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>99 (42, 227)</t>
+          <t>125 (56, 272)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>78 (26, 199)</t>
+          <t>101 (37, 241)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>14 (5, 34)</t>
+          <t>16 (6, 37)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>14 (7, 27)</t>
+          <t>15 (8, 29)</t>
         </is>
       </c>
     </row>
@@ -3061,42 +3061,42 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94 (40, 217)</t>
+          <t>121 (54, 265)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>74 (25, 190)</t>
+          <t>98 (35, 235)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>13 (5, 33)</t>
+          <t>15 (6, 36)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>13 (7, 26)</t>
+          <t>14 (7, 28)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>94 (40, 217)</t>
+          <t>121 (54, 265)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>74 (25, 190)</t>
+          <t>98 (35, 235)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>13 (5, 33)</t>
+          <t>15 (6, 36)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>13 (7, 26)</t>
+          <t>14 (7, 28)</t>
         </is>
       </c>
     </row>
@@ -3123,42 +3123,42 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90 (38, 207)</t>
+          <t>118 (52, 259)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>71 (24, 182)</t>
+          <t>96 (34, 230)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>12 (4, 31)</t>
+          <t>14 (5, 35)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>12 (6, 24)</t>
+          <t>14 (7, 27)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>90 (38, 207)</t>
+          <t>118 (52, 259)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>71 (24, 182)</t>
+          <t>96 (34, 230)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>12 (4, 31)</t>
+          <t>14 (5, 35)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>12 (6, 24)</t>
+          <t>14 (7, 27)</t>
         </is>
       </c>
     </row>
@@ -3185,42 +3185,42 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>86 (37, 200)</t>
+          <t>115 (50, 254)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>68 (23, 175)</t>
+          <t>93 (33, 225)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>11 (4, 29)</t>
+          <t>14 (5, 34)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>12 (6, 23)</t>
+          <t>13 (6, 26)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>86 (37, 200)</t>
+          <t>115 (50, 254)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>68 (23, 175)</t>
+          <t>93 (33, 225)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>11 (4, 29)</t>
+          <t>14 (5, 34)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>12 (6, 23)</t>
+          <t>13 (6, 26)</t>
         </is>
       </c>
     </row>
@@ -3247,42 +3247,42 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>83 (36, 193)</t>
+          <t>112 (49, 250)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>66 (23, 170)</t>
+          <t>91 (33, 221)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>11 (4, 28)</t>
+          <t>13 (5, 33)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>11 (5, 22)</t>
+          <t>13 (6, 26)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>83 (36, 193)</t>
+          <t>112 (49, 250)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>66 (23, 170)</t>
+          <t>91 (33, 221)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>11 (4, 28)</t>
+          <t>13 (5, 33)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>11 (5, 22)</t>
+          <t>13 (6, 26)</t>
         </is>
       </c>
     </row>
@@ -3309,42 +3309,42 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>81 (35, 188)</t>
+          <t>110 (47, 246)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>65 (23, 165)</t>
+          <t>90 (32, 218)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10 (4, 26)</t>
+          <t>13 (5, 32)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10 (5, 21)</t>
+          <t>12 (6, 25)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>81 (35, 188)</t>
+          <t>110 (47, 246)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>65 (23, 165)</t>
+          <t>90 (32, 218)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>10 (4, 26)</t>
+          <t>13 (5, 32)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>10 (5, 21)</t>
+          <t>12 (6, 25)</t>
         </is>
       </c>
     </row>
@@ -3371,42 +3371,42 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>79 (34, 183)</t>
+          <t>107 (46, 242)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>63 (22, 161)</t>
+          <t>88 (31, 215)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10 (4, 25)</t>
+          <t>12 (5, 31)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>10 (5, 20)</t>
+          <t>12 (6, 24)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>79 (34, 183)</t>
+          <t>107 (46, 242)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>63 (22, 161)</t>
+          <t>88 (31, 215)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>10 (4, 25)</t>
+          <t>12 (5, 31)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>10 (5, 20)</t>
+          <t>12 (6, 24)</t>
         </is>
       </c>
     </row>
@@ -3433,42 +3433,42 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>77 (33, 180)</t>
+          <t>105 (45, 240)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>62 (22, 158)</t>
+          <t>87 (31, 213)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>9 (3, 24)</t>
+          <t>12 (4, 30)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>9 (4, 19)</t>
+          <t>11 (5, 24)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>77 (33, 180)</t>
+          <t>105 (45, 240)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>62 (22, 158)</t>
+          <t>87 (31, 213)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>9 (3, 24)</t>
+          <t>12 (4, 30)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>9 (4, 19)</t>
+          <t>11 (5, 24)</t>
         </is>
       </c>
     </row>
@@ -3495,42 +3495,42 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>75 (32, 177)</t>
+          <t>104 (44, 238)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>61 (22, 156)</t>
+          <t>85 (30, 211)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>9 (3, 23)</t>
+          <t>12 (4, 30)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>11 (5, 23)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>75 (32, 177)</t>
+          <t>104 (44, 238)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>61 (22, 156)</t>
+          <t>85 (30, 211)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>9 (3, 23)</t>
+          <t>12 (4, 30)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>11 (5, 23)</t>
         </is>
       </c>
     </row>
@@ -3557,42 +3557,42 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>143 (64, 305)</t>
+          <t>159 (73, 331)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>116 (42, 271)</t>
+          <t>130 (49, 296)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>18 (7, 44)</t>
+          <t>19 (8, 44)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>18 (9, 34)</t>
+          <t>19 (10, 35)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>143 (64, 305)</t>
+          <t>159 (73, 331)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>116 (42, 271)</t>
+          <t>130 (49, 296)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>18 (7, 44)</t>
+          <t>19 (8, 44)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>18 (9, 34)</t>
+          <t>19 (10, 35)</t>
         </is>
       </c>
     </row>
@@ -3619,42 +3619,42 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>134 (59, 289)</t>
+          <t>152 (69, 320)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>108 (38, 256)</t>
+          <t>124 (46, 286)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>18 (7, 42)</t>
+          <t>19 (7, 43)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>17 (9, 33)</t>
+          <t>18 (9, 34)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>134 (59, 289)</t>
+          <t>152 (69, 320)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>108 (38, 256)</t>
+          <t>124 (46, 286)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>18 (7, 42)</t>
+          <t>19 (7, 43)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>17 (9, 33)</t>
+          <t>18 (9, 34)</t>
         </is>
       </c>
     </row>
@@ -3681,42 +3681,42 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>125 (55, 273)</t>
+          <t>146 (66, 310)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>100 (35, 242)</t>
+          <t>119 (44, 277)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>17 (6, 40)</t>
+          <t>18 (7, 41)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>17 (9, 31)</t>
+          <t>17 (9, 33)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>125 (55, 273)</t>
+          <t>146 (66, 310)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>100 (35, 242)</t>
+          <t>119 (44, 277)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>17 (6, 40)</t>
+          <t>18 (7, 41)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>17 (9, 31)</t>
+          <t>17 (9, 33)</t>
         </is>
       </c>
     </row>
@@ -3743,42 +3743,42 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>117 (51, 259)</t>
+          <t>141 (63, 300)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>94 (32, 229)</t>
+          <t>115 (42, 268)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>16 (6, 38)</t>
+          <t>17 (7, 40)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>16 (8, 30)</t>
+          <t>17 (9, 32)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>117 (51, 259)</t>
+          <t>141 (63, 300)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>94 (32, 229)</t>
+          <t>115 (42, 268)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>16 (6, 38)</t>
+          <t>17 (7, 40)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>16 (8, 30)</t>
+          <t>17 (9, 32)</t>
         </is>
       </c>
     </row>
@@ -3805,42 +3805,42 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>111 (48, 247)</t>
+          <t>136 (60, 292)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>88 (30, 218)</t>
+          <t>111 (40, 261)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>15 (6, 37)</t>
+          <t>16 (6, 39)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>15 (8, 28)</t>
+          <t>16 (8, 31)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>111 (48, 247)</t>
+          <t>136 (60, 292)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>88 (30, 218)</t>
+          <t>111 (40, 261)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>15 (6, 37)</t>
+          <t>16 (6, 39)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>15 (8, 28)</t>
+          <t>16 (8, 31)</t>
         </is>
       </c>
     </row>
@@ -3867,42 +3867,42 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>105 (46, 236)</t>
+          <t>132 (58, 285)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>84 (29, 208)</t>
+          <t>108 (39, 254)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>14 (5, 35)</t>
+          <t>16 (6, 38)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>14 (7, 27)</t>
+          <t>15 (8, 30)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>105 (46, 236)</t>
+          <t>132 (58, 285)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>84 (29, 208)</t>
+          <t>108 (39, 254)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>14 (5, 35)</t>
+          <t>16 (6, 38)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>14 (7, 27)</t>
+          <t>15 (8, 30)</t>
         </is>
       </c>
     </row>
@@ -3929,42 +3929,42 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>101 (44, 226)</t>
+          <t>128 (57, 279)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>80 (28, 200)</t>
+          <t>105 (38, 249)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>13 (5, 33)</t>
+          <t>15 (6, 36)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>13 (7, 26)</t>
+          <t>15 (7, 29)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>101 (44, 226)</t>
+          <t>128 (57, 279)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>80 (28, 200)</t>
+          <t>105 (38, 249)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>13 (5, 33)</t>
+          <t>15 (6, 36)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>13 (7, 26)</t>
+          <t>15 (7, 29)</t>
         </is>
       </c>
     </row>
@@ -3991,42 +3991,42 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>97 (42, 218)</t>
+          <t>126 (55, 274)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>78 (27, 193)</t>
+          <t>103 (38, 245)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>12 (5, 32)</t>
+          <t>15 (6, 35)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>12 (6, 24)</t>
+          <t>14 (7, 28)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>97 (42, 218)</t>
+          <t>126 (55, 274)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>78 (27, 193)</t>
+          <t>103 (38, 245)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>12 (5, 32)</t>
+          <t>15 (6, 35)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>12 (6, 24)</t>
+          <t>14 (7, 28)</t>
         </is>
       </c>
     </row>
@@ -4053,42 +4053,42 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>94 (41, 212)</t>
+          <t>123 (54, 270)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>76 (27, 187)</t>
+          <t>101 (37, 241)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>12 (4, 30)</t>
+          <t>14 (5, 34)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>12 (6, 23)</t>
+          <t>14 (7, 27)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>94 (41, 212)</t>
+          <t>123 (54, 270)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>76 (27, 187)</t>
+          <t>101 (37, 241)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>12 (4, 30)</t>
+          <t>14 (5, 34)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>12 (6, 23)</t>
+          <t>14 (7, 27)</t>
         </is>
       </c>
     </row>
@@ -4115,42 +4115,42 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>92 (40, 207)</t>
+          <t>121 (53, 267)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>74 (27, 183)</t>
+          <t>100 (37, 239)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>11 (4, 29)</t>
+          <t>14 (5, 33)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>11 (5, 22)</t>
+          <t>13 (6, 26)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>92 (40, 207)</t>
+          <t>121 (53, 267)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>74 (27, 183)</t>
+          <t>100 (37, 239)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>11 (4, 29)</t>
+          <t>14 (5, 33)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>11 (5, 22)</t>
+          <t>13 (6, 26)</t>
         </is>
       </c>
     </row>
@@ -4177,42 +4177,42 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>90 (40, 203)</t>
+          <t>120 (52, 265)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>73 (27, 180)</t>
+          <t>99 (36, 237)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>11 (4, 27)</t>
+          <t>13 (5, 33)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>10 (5, 21)</t>
+          <t>13 (6, 26)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>90 (40, 203)</t>
+          <t>120 (52, 265)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>73 (27, 180)</t>
+          <t>99 (36, 237)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>11 (4, 27)</t>
+          <t>13 (5, 33)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>10 (5, 21)</t>
+          <t>13 (6, 26)</t>
         </is>
       </c>
     </row>
@@ -4239,42 +4239,42 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>88 (39, 200)</t>
+          <t>119 (51, 263)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>72 (27, 178)</t>
+          <t>98 (36, 236)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>10 (4, 26)</t>
+          <t>13 (5, 32)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>10 (5, 20)</t>
+          <t>12 (6, 25)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>88 (39, 200)</t>
+          <t>119 (51, 263)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>72 (27, 178)</t>
+          <t>98 (36, 236)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>10 (4, 26)</t>
+          <t>13 (5, 32)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>10 (5, 20)</t>
+          <t>12 (6, 25)</t>
         </is>
       </c>
     </row>
@@ -4301,42 +4301,42 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>87 (38, 198)</t>
+          <t>118 (51, 263)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>72 (27, 176)</t>
+          <t>98 (36, 235)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>10 (4, 25)</t>
+          <t>13 (5, 31)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>10 (5, 20)</t>
+          <t>12 (6, 25)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>87 (38, 198)</t>
+          <t>118 (51, 263)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>72 (27, 176)</t>
+          <t>98 (36, 235)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>10 (4, 25)</t>
+          <t>13 (5, 31)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>10 (5, 20)</t>
+          <t>12 (6, 25)</t>
         </is>
       </c>
     </row>
@@ -4363,42 +4363,42 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>86 (38, 197)</t>
+          <t>117 (50, 263)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>71 (27, 175)</t>
+          <t>98 (36, 236)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>9 (3, 25)</t>
+          <t>12 (5, 31)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>9 (4, 19)</t>
+          <t>12 (6, 25)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>86 (38, 197)</t>
+          <t>117 (50, 263)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>71 (27, 175)</t>
+          <t>98 (36, 236)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>9 (3, 25)</t>
+          <t>12 (5, 31)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>9 (4, 19)</t>
+          <t>12 (6, 25)</t>
         </is>
       </c>
     </row>
